--- a/src/main/java/ask/testData/askData.xlsx
+++ b/src/main/java/ask/testData/askData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E76A780-649B-4D04-8F72-7631C2D24A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CEAC4-BC5C-4C8A-A584-F78C7299D694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -47,13 +47,37 @@
   </si>
   <si>
     <t>stashanin@gmail.com</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>groupCode</t>
+  </si>
+  <si>
+    <t>confirmedPassword</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Recrut</t>
+  </si>
+  <si>
+    <t>mualisson.macielb@worthshake.email</t>
+  </si>
+  <si>
+    <t>A123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +92,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,10 +127,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -418,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6695FD-E750-472D-99F5-0FC26E7D50C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -472,15 +503,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC47D4D-12AD-4300-AEEA-D548A88686C2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>12345</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/ask/testData/askData.xlsx
+++ b/src/main/java/ask/testData/askData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CEAC4-BC5C-4C8A-A584-F78C7299D694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA441ADD-6396-48C8-87CE-1BF56BB23459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>stashaniny@gmail.com</t>
-  </si>
-  <si>
     <t>stashanin@gmail.com</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>A123</t>
+  </si>
+  <si>
+    <t>fanwer.warteni.1y@macbookrepairvancouver.com</t>
   </si>
 </sst>
 </file>
@@ -449,13 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6695FD-E750-472D-99F5-0FC26E7D50C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="61.88671875" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>12345</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>12345</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>123456</v>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC47D4D-12AD-4300-AEEA-D548A88686C2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -521,36 +521,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>12345</v>

--- a/src/main/java/ask/testData/askData.xlsx
+++ b/src/main/java/ask/testData/askData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA441ADD-6396-48C8-87CE-1BF56BB23459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E2DA7-CB57-43A2-A41A-671177F6545A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>fanwer.warteni.1y@macbookrepairvancouver.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>12345661616</t>
   </si>
 </sst>
 </file>
@@ -127,11 +133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,7 +457,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,24 +478,24 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12345</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>123456</v>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/ask/testData/askData.xlsx
+++ b/src/main/java/ask/testData/askData.xlsx
@@ -3,121 +3,75 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ask.com\src\main\java\ask\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E2DA7-CB57-43A2-A41A-671177F6545A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC4D9C-7082-4962-AE45-0400C3CD1B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{2042FB30-6F0B-4DE0-B9B0-8B459E6F4BF2}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="Registration" sheetId="2" r:id="rId2"/>
-    <sheet name="Quizzes" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiz" sheetId="1" r:id="rId1"/>
+    <sheet name="Quiz1" sheetId="2" r:id="rId2"/>
+    <sheet name="Quiz2" sheetId="3" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
+    <sheet name="email" r:id="rId8" sheetId="5"/>
+    <sheet name="email1" r:id="rId9" sheetId="6"/>
+    <sheet name="email2" r:id="rId10" sheetId="7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>stashanin@gmail.com</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>groupCode</t>
-  </si>
-  <si>
-    <t>confirmedPassword</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Recrut</t>
-  </si>
-  <si>
-    <t>mualisson.macielb@worthshake.email</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>fanwer.warteni.1y@macbookrepairvancouver.com</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>12345661616</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+  <si>
+    <t>privet</t>
+  </si>
+  <si>
+    <t>privet1</t>
+  </si>
+  <si>
+    <t>privet2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>8rashed_2304@dgseoorg.org</t>
+  </si>
+  <si>
+    <t>myoussef.kacm.755@dlyemail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,19 +83,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,135 +401,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6695FD-E750-472D-99F5-0FC26E7D50C7}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B2D8C1AD-9ABC-4E58-9015-E472DA341C47}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7E6C318B-1417-4CDE-86DF-C0D5313D5644}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{4E7FA436-C089-4346-ACA4-CE7A37DC52C4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC47D4D-12AD-4300-AEEA-D548A88686C2}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>12345</v>
-      </c>
-      <c r="F2">
-        <v>12345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E34F1E-7924-41C3-8732-85E25D9F10FD}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/java/ask/testData/askData.xlsx
+++ b/src/main/java/ask/testData/askData.xlsx
@@ -1,63 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ask.com\src\main\java\ask\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC4D9C-7082-4962-AE45-0400C3CD1B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47D9AB-1C16-478B-A041-0FFE900F044C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quiz" sheetId="1" r:id="rId1"/>
-    <sheet name="Quiz1" sheetId="2" r:id="rId2"/>
-    <sheet name="Quiz2" sheetId="3" r:id="rId3"/>
-    <sheet name="Test" sheetId="4" r:id="rId4"/>
-    <sheet name="email" r:id="rId8" sheetId="5"/>
-    <sheet name="email1" r:id="rId9" sheetId="6"/>
-    <sheet name="email2" r:id="rId10" sheetId="7"/>
+    <sheet name="Login" sheetId="7" r:id="rId1"/>
+    <sheet name="Reg" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
-  <si>
-    <t>privet</t>
-  </si>
-  <si>
-    <t>privet1</t>
-  </si>
-  <si>
-    <t>privet2</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirmed password</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>sdfsfs</t>
+  </si>
+  <si>
+    <t>sdfsdfsd@bsdhfhs.fdjijd</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>xzczcz</t>
+  </si>
+  <si>
+    <t>zxczcz@bdhbs.com</t>
+  </si>
+  <si>
+    <t>vxcvxvx</t>
+  </si>
+  <si>
+    <t>sdfsfs@sdhs.com</t>
+  </si>
+  <si>
+    <t>dsfsfs</t>
+  </si>
+  <si>
+    <t>sfs</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>8rashed_2304@dgseoorg.org</t>
-  </si>
-  <si>
-    <t>myoussef.kacm.755@dlyemail.com</t>
+    <t>bhjhnj</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>fgdgdf</t>
+  </si>
+  <si>
+    <t>sdfsfs ddd</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>fgdgdfgd</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>12357</t>
+  </si>
+  <si>
+    <t>sdfsfssdh.com</t>
+  </si>
+  <si>
+    <t>sdfsfs@sdh.com</t>
+  </si>
+  <si>
+    <t>sdfsfssdh@com.f</t>
+  </si>
+  <si>
+    <t>sdfsfssdh@com.d</t>
+  </si>
+  <si>
+    <t>123567</t>
+  </si>
+  <si>
+    <t>gmohamed@3950hg.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>gmohamed@3950hg.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -65,13 +143,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,13 +181,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,262 +504,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6E196F12-28EB-42E7-BF98-9834A7C00407}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{687F10BA-2F66-4E3D-8D93-7C15C5AD5E07}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{AEBA20D4-4DC1-4873-AD8C-FF07A8AD3D46}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4041C28-F7AE-4D80-AFA4-DED1D61958C5}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C8DC08A7-867A-41F9-89A0-BB5C510472C9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{01C88233-2290-4739-B9DD-16893A654289}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2BCBFD20-2856-4DC3-A95A-83EFD341D156}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{D76A1250-01B3-417D-A3E0-0DDEEE2D28E0}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{AE6F44C7-2DFC-433B-8A3D-97872248C262}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{ECB031B8-E3FD-4B31-8B18-8F140C3C6FA0}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{88C31DE0-A083-46C7-9A77-AC305897A227}"/>
+    <hyperlink ref="C10" r:id="rId8" display="sdfsfs@sdhcom" xr:uid="{42DBE1BD-D074-4D8E-B230-6305259B7922}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>